--- a/3.12/left.xlsx
+++ b/3.12/left.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\GitHub\students.mathsnz.com\3.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27F2498-67F1-4DBD-94F0-743FF8D589DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0004A1C-E296-4AC1-B55D-D8A024757603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="465" windowWidth="14340" windowHeight="6495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>Before</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Appendix :</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/-kVCjCyXWSs?rel=0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/GyrpUw9WTAM?rel=0</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.12/pdfs/2.2a.pdf&amp;embedded=true</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/eZV8ZPJkO8g?rel=0</t>
-  </si>
-  <si>
     <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.12/pdfs/3.1a.pdf&amp;embedded=true</t>
   </si>
   <si>
@@ -330,6 +321,27 @@
   </si>
   <si>
     <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/3.12/pdfs/5.2b.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/aNC9MIfYEqc?rel=0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/1QfIxhDBFWw?rel=0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/2tL4Nc27GPM?rel=0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/w_DZrPDsfsM?rel=0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/lnpANFhqETM?rel=0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/INmhePcacn4?rel=0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/rcMWJvJIqDA?rel=0</t>
   </si>
 </sst>
 </file>
@@ -353,18 +365,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -380,341 +386,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1541,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1596,7 +1281,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="str">
         <f t="shared" ref="C2:C49" si="0">IF(I2&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1632,7 +1317,7 @@
         <v>&lt;a href='3.12_1a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1658,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K50" si="5">SUBSTITUTE(MID(F3,2,99),".","")</f>
@@ -1671,7 +1356,7 @@
         <v>&lt;a href='3.12_1_b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" ref="C4" si="7">IF(I4&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1697,7 +1382,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" ref="K4" si="11">SUBSTITUTE(MID(F4,2,99),".","")</f>
@@ -1710,7 +1395,7 @@
         <v>&lt;a href='3.12_1_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1736,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="5"/>
@@ -1749,7 +1434,7 @@
         <v>&lt;a href='3.12_1_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1775,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="5"/>
@@ -1788,7 +1473,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1813,7 +1498,7 @@
       <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
       <c r="K7" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1825,7 +1510,7 @@
         <v>&lt;a href='3.12_2a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1850,8 +1535,8 @@
       <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>81</v>
+      <c r="J8" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="5"/>
@@ -1864,7 +1549,7 @@
         <v>&lt;a href='3.12_2b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1889,8 +1574,8 @@
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>24</v>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="5"/>
@@ -1903,7 +1588,7 @@
         <v>&lt;a href='3.12_2_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1928,8 +1613,8 @@
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>72</v>
+      <c r="J10" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="5"/>
@@ -1942,7 +1627,7 @@
         <v>&lt;a href='3.12_2_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="str">
         <f>IF(I11&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -1967,8 +1652,8 @@
       <c r="I11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>79</v>
+      <c r="J11" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="5"/>
@@ -1981,7 +1666,7 @@
         <v>&lt;a href='3.12_2_2.html' class=Document header=2&gt;</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2006,8 +1691,8 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>73</v>
+      <c r="J12" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="5"/>
@@ -2020,7 +1705,7 @@
         <v>&lt;a href='3.12_2_2a.html' class=Document header=2a&gt;</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>IF(I13&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2045,8 +1730,8 @@
       <c r="I13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>80</v>
+      <c r="J13" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="5"/>
@@ -2059,7 +1744,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2084,7 +1769,7 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
       <c r="K14" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2096,7 +1781,7 @@
         <v>&lt;a href='3.12_3a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2121,8 +1806,8 @@
       <c r="I15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>83</v>
+      <c r="J15" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="5"/>
@@ -2135,7 +1820,7 @@
         <v>&lt;a href='3.12_3b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2160,8 +1845,8 @@
       <c r="I16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>25</v>
+      <c r="J16" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="5"/>
@@ -2174,7 +1859,7 @@
         <v>&lt;a href='3.12_3_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2199,8 +1884,8 @@
       <c r="I17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>74</v>
+      <c r="J17" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="5"/>
@@ -2213,7 +1898,7 @@
         <v>&lt;a href='3.12_3_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2238,8 +1923,8 @@
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>82</v>
+      <c r="J18" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="5"/>
@@ -2252,7 +1937,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2277,7 +1962,7 @@
       <c r="I19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="4"/>
       <c r="K19" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2289,7 +1974,7 @@
         <v>&lt;a href='3.12_4a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2314,8 +1999,8 @@
       <c r="I20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>86</v>
+      <c r="J20" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="5"/>
@@ -2328,7 +2013,7 @@
         <v>&lt;a href='3.12_4b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2353,8 +2038,8 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>26</v>
+      <c r="J21" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="5"/>
@@ -2367,7 +2052,7 @@
         <v>&lt;a href='3.12_4_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" ref="C22" si="14">IF(I22&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2392,8 +2077,8 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>75</v>
+      <c r="J22" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" ref="K22" si="18">SUBSTITUTE(MID(F22,2,99),".","")</f>
@@ -2406,7 +2091,7 @@
         <v>&lt;a href='3.12_4_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2431,8 +2116,8 @@
       <c r="I23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>84</v>
+      <c r="J23" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="5"/>
@@ -2445,7 +2130,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2470,7 +2155,7 @@
       <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="4"/>
       <c r="K24" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2482,7 +2167,7 @@
         <v>&lt;a href='3.12_5a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2508,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="5"/>
@@ -2521,7 +2206,7 @@
         <v>&lt;a href='3.12_5b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2546,8 +2231,8 @@
       <c r="I26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>27</v>
+      <c r="J26" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="5"/>
@@ -2560,7 +2245,7 @@
         <v>&lt;a href='3.12_5_1.html' class=Video header=1&gt;</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2586,7 +2271,7 @@
         <v>9</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="5"/>
@@ -2599,7 +2284,7 @@
         <v>&lt;a href='3.12_5_1a.html' class=Document header=1a&gt;</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2624,8 +2309,8 @@
       <c r="I28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>76</v>
+      <c r="J28" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="5"/>
@@ -2638,7 +2323,7 @@
         <v>&lt;a href='3.12_5_1b.html' class=Document header=1b&gt;</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2663,8 +2348,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>93</v>
+      <c r="J29" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="5"/>
@@ -2677,7 +2362,7 @@
         <v>&lt;a href='3.12_5_1c.html' class=Document header=1c&gt;</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2702,8 +2387,8 @@
       <c r="I30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>94</v>
+      <c r="J30" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="5"/>
@@ -2716,7 +2401,7 @@
         <v>&lt;a href='3.12_5_2.html' class=Video header=2&gt;</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" ref="C31:C34" si="20">IF(I31&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2742,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" ref="K31:K34" si="24">SUBSTITUTE(MID(F31,2,99),".","")</f>
@@ -2755,7 +2440,7 @@
         <v>&lt;a href='3.12_5_2a.html' class=Document header=2a&gt;</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="20"/>
@@ -2780,8 +2465,8 @@
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>95</v>
+      <c r="J32" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="24"/>
@@ -2794,7 +2479,7 @@
         <v>&lt;a href='3.12_5_2b.html' class=Document header=2b&gt;</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="20"/>
@@ -2819,8 +2504,8 @@
       <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>96</v>
+      <c r="J33" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="24"/>
@@ -2833,7 +2518,7 @@
         <v>&lt;a href='3.12_5_2c.html' class=Document header=2c&gt;</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="20"/>
@@ -2858,8 +2543,8 @@
       <c r="I34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>97</v>
+      <c r="J34" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="24"/>
@@ -2872,7 +2557,7 @@
         <v>&lt;a href='3.12_5_3.html' class=Video header=3&gt;</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2898,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="5"/>
@@ -2911,7 +2596,7 @@
         <v>&lt;a href='3.12_5_3a.html' class=Document header=3a&gt;</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" ref="C36:C42" si="26">IF(I36&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2936,8 +2621,8 @@
       <c r="I36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="5" t="s">
-        <v>90</v>
+      <c r="J36" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="5"/>
@@ -2950,7 +2635,7 @@
         <v>&lt;a href='3.12_5_3b.html' class=Document header=3b&gt;</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3" t="str">
         <f t="shared" si="26"/>
@@ -2975,8 +2660,8 @@
       <c r="I37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="5" t="s">
-        <v>91</v>
+      <c r="J37" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="5"/>
@@ -2989,7 +2674,7 @@
         <v>&lt;a href='3.12_5_3c.html' class=Document header=3c&gt;</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="str">
         <f t="shared" si="26"/>
@@ -3014,8 +2699,8 @@
       <c r="I38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="5" t="s">
-        <v>92</v>
+      <c r="J38" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="5"/>
@@ -3028,7 +2713,7 @@
         <v>&lt;a href='3.12_5_4.html' class=Video header=4&gt;</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="str">
         <f t="shared" si="26"/>
@@ -3054,7 +2739,7 @@
         <v>9</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="5"/>
@@ -3067,7 +2752,7 @@
         <v>&lt;a href='3.12_5_4a.html' class=Document header=4a&gt;</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="3" t="str">
         <f t="shared" si="26"/>
@@ -3092,8 +2777,8 @@
       <c r="I40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>89</v>
+      <c r="J40" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="5"/>
@@ -3106,7 +2791,7 @@
         <v>&lt;a href='3.12_5_4b.html' class=Document header=4b&gt;</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3" t="str">
         <f t="shared" si="26"/>
@@ -3131,8 +2816,8 @@
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>88</v>
+      <c r="J41" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="5"/>
@@ -3145,7 +2830,7 @@
         <v>&lt;a href='3.12_5_4c.html' class=Document header=4c&gt;</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="3" t="str">
         <f t="shared" si="26"/>
@@ -3170,8 +2855,8 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>87</v>
+      <c r="J42" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="5"/>
@@ -3184,7 +2869,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3209,7 +2894,7 @@
       <c r="I43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="J43" s="4"/>
       <c r="K43" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3221,7 +2906,7 @@
         <v>&lt;a href='3.12_6a.html' class=Video header=a&gt;</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3247,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -3260,7 +2945,7 @@
         <v>&lt;a href='3.12_6b.html' class=Document header=b&gt;</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3285,8 +2970,8 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="5" t="s">
-        <v>28</v>
+      <c r="J45" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -3299,7 +2984,7 @@
         <v>&lt;a href='3.12_6_1.html' class=Document header=1&gt;</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3324,8 +3009,8 @@
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="5" t="s">
-        <v>77</v>
+      <c r="J46" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="5"/>
@@ -3338,7 +3023,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3" t="str">
         <f t="shared" ref="C47" si="31">IF(I47&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -3363,7 +3048,7 @@
       <c r="I47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="3" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3375,7 +3060,7 @@
         <v>&lt;a href='3.12_7a.html' class=Document header=a&gt;</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3" t="str">
         <f>IF(I48&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -3400,8 +3085,8 @@
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>85</v>
+      <c r="J48" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="5"/>
@@ -3439,7 +3124,7 @@
       <c r="I49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="4"/>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3476,8 +3161,8 @@
       <c r="I50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>78</v>
+      <c r="J50" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="5"/>
@@ -3492,14 +3177,12 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J56" s="2"/>
@@ -3508,6 +3191,7 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I58" s="3"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3521,14 +3205,12 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J65" s="2"/>
@@ -3537,7 +3219,6 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I67" s="3"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.25">
@@ -3552,341 +3233,259 @@
     <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J77" s="2"/>
-    </row>
     <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I78" s="3"/>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I80" s="3"/>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I92" s="3"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J93" s="2"/>
-    </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I100" s="3"/>
-      <c r="J100" s="2"/>
-    </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I114" s="3"/>
-      <c r="J114" s="2"/>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I106" s="3"/>
+      <c r="J106" s="2"/>
     </row>
     <row r="128" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I128" s="3"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I150" s="3"/>
-      <c r="J150" s="2"/>
-    </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I170" s="3"/>
-      <c r="J170" s="2"/>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I148" s="3"/>
+      <c r="J148" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J24:J25">
-    <cfRule type="cellIs" dxfId="86" priority="97" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J49 J81:J89 J101:J113 J151:J169 J61:J66 J115:J127 J68:J79 J91:J99 J171:J1048576 J129:J149 J7 J51:J58 J14 J9 J19 K1">
-    <cfRule type="cellIs" dxfId="85" priority="93" operator="equal">
+  <conditionalFormatting sqref="J24:J25 J51:J57">
+    <cfRule type="cellIs" dxfId="54" priority="97" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J2 J49 J59:J67 J79:J91 J129:J147 J93:J105 J69:J77 J149:J1048576 J107:J127 J7 J14 J9 J19 K1">
+    <cfRule type="cellIs" dxfId="53" priority="93" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="84" priority="92" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
-    <cfRule type="cellIs" dxfId="83" priority="86" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="82" priority="90" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="81" priority="89" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="cellIs" dxfId="80" priority="88" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80">
-    <cfRule type="cellIs" dxfId="79" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="92" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78">
+    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="cellIs" dxfId="50" priority="87" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="78" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="78" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="71" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="65" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="70" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="68" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J90">
-    <cfRule type="cellIs" dxfId="66" priority="81" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J114">
-    <cfRule type="cellIs" dxfId="65" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="67" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="cellIs" dxfId="41" priority="81" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92">
+    <cfRule type="cellIs" dxfId="40" priority="85" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="cellIs" dxfId="39" priority="84" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J128">
-    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J150">
-    <cfRule type="cellIs" dxfId="63" priority="83" operator="equal">
-      <formula>"https://www.youtube.com/embed/"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J170">
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="83" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J148">
+    <cfRule type="cellIs" dxfId="37" priority="82" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="60" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="80" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="54" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="46" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="45" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="40" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="38" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"https://www.youtube.com/embed/"</formula>
     </cfRule>
   </conditionalFormatting>
